--- a/excel2sbol/tests/test_files/test_version5_flapjack_compiler_sbol3_v007.xlsx
+++ b/excel2sbol/tests/test_files/test_version5_flapjack_compiler_sbol3_v007.xlsx
@@ -1804,7 +1804,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/excel2sbol/tests/test_files/test_version5_flapjack_compiler_sbol3_v007.xlsx
+++ b/excel2sbol/tests/test_files/test_version5_flapjack_compiler_sbol3_v007.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="110">
   <si>
     <t>Collection Name</t>
   </si>
@@ -348,9 +348,6 @@
     <t>Study 4</t>
   </si>
   <si>
-    <t>sbol_member</t>
-  </si>
-  <si>
     <t>Assay 40</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>fj_dataSource</t>
   </si>
   <si>
-    <t>C37</t>
-  </si>
-  <si>
     <t>Study1</t>
   </si>
   <si>
@@ -391,6 +385,9 @@
   </si>
   <si>
     <t>Assay21</t>
+  </si>
+  <si>
+    <t>sbol_members</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +1801,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1966,7 +1963,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>54</v>
@@ -2046,7 +2043,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>89</v>
@@ -2206,7 +2203,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>54</v>
@@ -2366,7 +2363,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>54</v>
@@ -2769,10 +2766,10 @@
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>71</v>
@@ -2784,7 +2781,7 @@
         <v>73</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>33</v>
@@ -2792,10 +2789,10 @@
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>64</v>
@@ -2807,7 +2804,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>33</v>
@@ -2828,10 +2825,10 @@
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>68</v>
@@ -2843,7 +2840,7 @@
         <v>70</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>33</v>
@@ -2864,10 +2861,10 @@
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>66</v>
@@ -2879,7 +2876,7 @@
         <v>37</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>33</v>
@@ -3240,7 +3237,7 @@
   <dimension ref="A1:U92"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:G19"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3395,7 +3392,7 @@
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>78</v>
@@ -3517,7 +3514,7 @@
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>78</v>
@@ -3528,11 +3525,11 @@
       <c r="D20" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>102</v>
+      <c r="E20" s="18">
+        <v>37</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>34</v>
@@ -3540,7 +3537,7 @@
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>81</v>
@@ -3551,11 +3548,11 @@
       <c r="D21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="18">
+        <v>37</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>104</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>34</v>
@@ -3576,7 +3573,7 @@
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>83</v>
@@ -3587,11 +3584,11 @@
       <c r="D22" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>102</v>
+      <c r="E22" s="18">
+        <v>37</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>34</v>
@@ -3612,7 +3609,7 @@
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>85</v>
@@ -3623,11 +3620,11 @@
       <c r="D23" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>102</v>
+      <c r="E23" s="18">
+        <v>37</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>34</v>
